--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H2">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.39412622179101</v>
+        <v>0.024647</v>
       </c>
       <c r="N2">
-        <v>0.39412622179101</v>
+        <v>0.07394100000000001</v>
       </c>
       <c r="O2">
-        <v>0.04394804227930694</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="P2">
-        <v>0.04394804227930694</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="Q2">
-        <v>5.764952393931931</v>
+        <v>0.373163368452</v>
       </c>
       <c r="R2">
-        <v>5.764952393931931</v>
+        <v>3.358470316068</v>
       </c>
       <c r="S2">
-        <v>0.01452745924572658</v>
+        <v>0.0006461737399676699</v>
       </c>
       <c r="T2">
-        <v>0.01452745924572658</v>
+        <v>0.0006461737399676698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H3">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.507857666066149</v>
+        <v>0.4009073333333333</v>
       </c>
       <c r="N3">
-        <v>8.507857666066149</v>
+        <v>1.202722</v>
       </c>
       <c r="O3">
-        <v>0.9486902107540247</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="P3">
-        <v>0.9486902107540247</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="Q3">
-        <v>124.4459051629103</v>
+        <v>6.069863713384</v>
       </c>
       <c r="R3">
-        <v>124.4459051629103</v>
+        <v>54.628773420456</v>
       </c>
       <c r="S3">
-        <v>0.3135989149632309</v>
+        <v>0.01051064190207592</v>
       </c>
       <c r="T3">
-        <v>0.3135989149632309</v>
+        <v>0.01051064190207592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H4">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J4">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06602017671946619</v>
+        <v>11.681588</v>
       </c>
       <c r="N4">
-        <v>0.06602017671946619</v>
+        <v>35.044764</v>
       </c>
       <c r="O4">
-        <v>0.007361746966668327</v>
+        <v>0.9484139445961233</v>
       </c>
       <c r="P4">
-        <v>0.007361746966668327</v>
+        <v>0.9484139445961232</v>
       </c>
       <c r="Q4">
-        <v>0.9656885403288772</v>
+        <v>176.862933701808</v>
       </c>
       <c r="R4">
-        <v>0.9656885403288772</v>
+        <v>1591.766403316272</v>
       </c>
       <c r="S4">
-        <v>0.002433498137549165</v>
+        <v>0.306257776066923</v>
       </c>
       <c r="T4">
-        <v>0.002433498137549165</v>
+        <v>0.306257776066923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.8858540144953</v>
+        <v>15.140316</v>
       </c>
       <c r="H5">
-        <v>18.8858540144953</v>
+        <v>45.420948</v>
       </c>
       <c r="I5">
-        <v>0.4268019207276728</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J5">
-        <v>0.4268019207276728</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.39412622179101</v>
+        <v>0.2098296666666667</v>
       </c>
       <c r="N5">
-        <v>0.39412622179101</v>
+        <v>0.6294890000000001</v>
       </c>
       <c r="O5">
-        <v>0.04394804227930694</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="P5">
-        <v>0.04394804227930694</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="Q5">
-        <v>7.443410288029611</v>
+        <v>3.176887459508</v>
       </c>
       <c r="R5">
-        <v>7.443410288029611</v>
+        <v>28.591987135572</v>
       </c>
       <c r="S5">
-        <v>0.01875710885702917</v>
+        <v>0.005501132813980181</v>
       </c>
       <c r="T5">
-        <v>0.01875710885702917</v>
+        <v>0.00550113281398018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J6">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.507857666066149</v>
+        <v>0.024647</v>
       </c>
       <c r="N6">
-        <v>8.507857666066149</v>
+        <v>0.07394100000000001</v>
       </c>
       <c r="O6">
-        <v>0.9486902107540247</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="P6">
-        <v>0.9486902107540247</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="Q6">
-        <v>160.67815785743</v>
+        <v>0.4668314246843334</v>
       </c>
       <c r="R6">
-        <v>160.67815785743</v>
+        <v>4.201482822159001</v>
       </c>
       <c r="S6">
-        <v>0.4049028041253584</v>
+        <v>0.0008083703630237572</v>
       </c>
       <c r="T6">
-        <v>0.4049028041253584</v>
+        <v>0.000808370363023757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J7">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06602017671946619</v>
+        <v>0.4009073333333333</v>
       </c>
       <c r="N7">
-        <v>0.06602017671946619</v>
+        <v>1.202722</v>
       </c>
       <c r="O7">
-        <v>0.007361746966668327</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="P7">
-        <v>0.007361746966668327</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="Q7">
-        <v>1.24684741953502</v>
+        <v>7.593465394830889</v>
       </c>
       <c r="R7">
-        <v>1.24684741953502</v>
+        <v>68.34118855347801</v>
       </c>
       <c r="S7">
-        <v>0.00314200774528516</v>
+        <v>0.0131489271142757</v>
       </c>
       <c r="T7">
-        <v>0.00314200774528516</v>
+        <v>0.01314892711427569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.42028061199919</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>2.42028061199919</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J8">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.39412622179101</v>
+        <v>11.681588</v>
       </c>
       <c r="N8">
-        <v>0.39412622179101</v>
+        <v>35.044764</v>
       </c>
       <c r="O8">
-        <v>0.04394804227930694</v>
+        <v>0.9484139445961233</v>
       </c>
       <c r="P8">
-        <v>0.04394804227930694</v>
+        <v>0.9484139445961232</v>
       </c>
       <c r="Q8">
-        <v>0.9538960532812741</v>
+        <v>221.2574499377373</v>
       </c>
       <c r="R8">
-        <v>0.9538960532812741</v>
+        <v>1991.317049439636</v>
       </c>
       <c r="S8">
-        <v>0.002403781521819583</v>
+        <v>0.3831318023391879</v>
       </c>
       <c r="T8">
-        <v>0.002403781521819583</v>
+        <v>0.3831318023391879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.42028061199919</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>2.42028061199919</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J9">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.507857666066149</v>
+        <v>0.2098296666666667</v>
       </c>
       <c r="N9">
-        <v>8.507857666066149</v>
+        <v>0.6294890000000001</v>
       </c>
       <c r="O9">
-        <v>0.9486902107540247</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="P9">
-        <v>0.9486902107540247</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="Q9">
-        <v>20.59140295882858</v>
+        <v>3.974320697490112</v>
       </c>
       <c r="R9">
-        <v>20.59140295882858</v>
+        <v>35.76888627741101</v>
       </c>
       <c r="S9">
-        <v>0.05188954684371466</v>
+        <v>0.006881976866007518</v>
       </c>
       <c r="T9">
-        <v>0.05188954684371466</v>
+        <v>0.006881976866007517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42028061199919</v>
+        <v>3.221232</v>
       </c>
       <c r="H10">
-        <v>2.42028061199919</v>
+        <v>9.663696</v>
       </c>
       <c r="I10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J10">
-        <v>0.05469598637733654</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06602017671946619</v>
+        <v>0.024647</v>
       </c>
       <c r="N10">
-        <v>0.06602017671946619</v>
+        <v>0.07394100000000001</v>
       </c>
       <c r="O10">
-        <v>0.007361746966668327</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="P10">
-        <v>0.007361746966668327</v>
+        <v>0.002001060000785908</v>
       </c>
       <c r="Q10">
-        <v>0.1597873537148843</v>
+        <v>0.07939370510400001</v>
       </c>
       <c r="R10">
-        <v>0.1597873537148843</v>
+        <v>0.7145433459360001</v>
       </c>
       <c r="S10">
-        <v>0.0004026580118022894</v>
+        <v>0.0001374790016762885</v>
       </c>
       <c r="T10">
-        <v>0.0004026580118022894</v>
+        <v>0.0001374790016762885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.316385583239979</v>
+        <v>3.221232</v>
       </c>
       <c r="H11">
-        <v>8.316385583239979</v>
+        <v>9.663696</v>
       </c>
       <c r="I11">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J11">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.39412622179101</v>
+        <v>0.4009073333333333</v>
       </c>
       <c r="N11">
-        <v>0.39412622179101</v>
+        <v>1.202722</v>
       </c>
       <c r="O11">
-        <v>0.04394804227930694</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="P11">
-        <v>0.04394804227930694</v>
+        <v>0.03254917956567031</v>
       </c>
       <c r="Q11">
-        <v>3.277705628879598</v>
+        <v>1.291415531168</v>
       </c>
       <c r="R11">
-        <v>3.277705628879598</v>
+        <v>11.622739780512</v>
       </c>
       <c r="S11">
-        <v>0.008259692654731608</v>
+        <v>0.002236229153705103</v>
       </c>
       <c r="T11">
-        <v>0.008259692654731608</v>
+        <v>0.002236229153705103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.316385583239979</v>
+        <v>3.221232</v>
       </c>
       <c r="H12">
-        <v>8.316385583239979</v>
+        <v>9.663696</v>
       </c>
       <c r="I12">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J12">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.507857666066149</v>
+        <v>11.681588</v>
       </c>
       <c r="N12">
-        <v>8.507857666066149</v>
+        <v>35.044764</v>
       </c>
       <c r="O12">
-        <v>0.9486902107540247</v>
+        <v>0.9484139445961233</v>
       </c>
       <c r="P12">
-        <v>0.9486902107540247</v>
+        <v>0.9484139445961232</v>
       </c>
       <c r="Q12">
-        <v>70.75462483833026</v>
+        <v>37.629105076416</v>
       </c>
       <c r="R12">
-        <v>70.75462483833026</v>
+        <v>338.661945687744</v>
       </c>
       <c r="S12">
-        <v>0.1782989448217208</v>
+        <v>0.06515896686143187</v>
       </c>
       <c r="T12">
-        <v>0.1782989448217208</v>
+        <v>0.06515896686143186</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.316385583239979</v>
+        <v>3.221232</v>
       </c>
       <c r="H13">
-        <v>8.316385583239979</v>
+        <v>9.663696</v>
       </c>
       <c r="I13">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J13">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06602017671946619</v>
+        <v>0.2098296666666667</v>
       </c>
       <c r="N13">
-        <v>0.06602017671946619</v>
+        <v>0.6294890000000001</v>
       </c>
       <c r="O13">
-        <v>0.007361746966668327</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="P13">
-        <v>0.007361746966668327</v>
+        <v>0.01703581583742065</v>
       </c>
       <c r="Q13">
-        <v>0.5490492458727244</v>
+        <v>0.6759100368160001</v>
       </c>
       <c r="R13">
-        <v>0.5490492458727244</v>
+        <v>6.083190331344</v>
       </c>
       <c r="S13">
-        <v>0.001383583072031712</v>
+        <v>0.001170413157601401</v>
       </c>
       <c r="T13">
-        <v>0.001383583072031712</v>
+        <v>0.0011704131576014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H14">
+        <v>28.752087</v>
+      </c>
+      <c r="I14">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J14">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.024647</v>
+      </c>
+      <c r="N14">
+        <v>0.07394100000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.002001060000785908</v>
+      </c>
+      <c r="P14">
+        <v>0.002001060000785908</v>
+      </c>
+      <c r="Q14">
+        <v>0.236217562763</v>
+      </c>
+      <c r="R14">
+        <v>2.125958064867</v>
+      </c>
+      <c r="S14">
+        <v>0.0004090368961181925</v>
+      </c>
+      <c r="T14">
+        <v>0.0004090368961181925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H15">
+        <v>28.752087</v>
+      </c>
+      <c r="I15">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J15">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4009073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.202722</v>
+      </c>
+      <c r="O15">
+        <v>0.03254917956567031</v>
+      </c>
+      <c r="P15">
+        <v>0.03254917956567031</v>
+      </c>
+      <c r="Q15">
+        <v>3.842307508979334</v>
+      </c>
+      <c r="R15">
+        <v>34.580767580814</v>
+      </c>
+      <c r="S15">
+        <v>0.006653381395613593</v>
+      </c>
+      <c r="T15">
+        <v>0.006653381395613592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H16">
+        <v>28.752087</v>
+      </c>
+      <c r="I16">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J16">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.681588</v>
+      </c>
+      <c r="N16">
+        <v>35.044764</v>
+      </c>
+      <c r="O16">
+        <v>0.9484139445961233</v>
+      </c>
+      <c r="P16">
+        <v>0.9484139445961232</v>
+      </c>
+      <c r="Q16">
+        <v>111.956678158052</v>
+      </c>
+      <c r="R16">
+        <v>1007.610103422468</v>
+      </c>
+      <c r="S16">
+        <v>0.1938653993285805</v>
+      </c>
+      <c r="T16">
+        <v>0.1938653993285805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H17">
+        <v>28.752087</v>
+      </c>
+      <c r="I17">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J17">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2098296666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.6294890000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01703581583742065</v>
+      </c>
+      <c r="P17">
+        <v>0.01703581583742065</v>
+      </c>
+      <c r="Q17">
+        <v>2.011013610393667</v>
+      </c>
+      <c r="R17">
+        <v>18.099122493543</v>
+      </c>
+      <c r="S17">
+        <v>0.003482292999831554</v>
+      </c>
+      <c r="T17">
+        <v>0.003482292999831553</v>
       </c>
     </row>
   </sheetData>
